--- a/ЛР №1/lab_1/Orlov/keyboard_1/data_exp_1/13_keys/13_keys.xlsx
+++ b/ЛР №1/lab_1/Orlov/keyboard_1/data_exp_1/13_keys/13_keys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учёба\МАИ\4 курс\Базы и банки данных\ЛР №1\lab_1\data_exp_1\13_keys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учёба\МАИ\4 курс\Базы и банки данных\данные\Orlov\keyboard_1\data_exp_1\13_keys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D78224B-5E24-4C29-B43C-94AD3960179B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C0189E-F341-4FDA-AF49-D27BFDADC848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный лист" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,7 @@
     <sheet name="9 стим." sheetId="5" r:id="rId5"/>
     <sheet name="13 стим." sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2027,7 +2016,7 @@
             <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Верная реакция</t>
+          <t>Ошибочная реакция</t>
         </r>
       </text>
     </comment>
@@ -2705,7 +2694,7 @@
             <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Выброс</t>
+          <t>Верная реакция</t>
         </r>
       </text>
     </comment>
@@ -2825,7 +2814,7 @@
             <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Выброс</t>
+          <t>Верная реакция</t>
         </r>
       </text>
     </comment>
@@ -2999,7 +2988,7 @@
             <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Верная реакция</t>
+          <t>Ошибочная реакция</t>
         </r>
       </text>
     </comment>
@@ -3581,335 +3570,335 @@
             <charset val="204"/>
             <scheme val="minor"/>
           </rPr>
+          <t>Верная реакция</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001D000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Клавиша 4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Верная реакция</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Клавиша 5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000020000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Верная реакция</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000021000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Клавиша 6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000022000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Верная реакция</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000023000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Клавиша 7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000024000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Верная реакция</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000025000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Клавиша 8</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000026000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Верная реакция</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000027000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Клавиша 9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000028000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Верная реакция</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000029000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Клавиша 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Верная реакция</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Точка (.)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Верная реакция</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002D000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Enter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Верная реакция</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Плюс (+)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000030000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Верная реакция</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000031000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Верная реакция</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000032000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
           <t>Выброс</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001D000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Клавиша 4</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Верная реакция</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001F000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Клавиша 5</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000020000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Верная реакция</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000021000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Клавиша 6</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000022000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Верная реакция</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000023000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Клавиша 7</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000024000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Верная реакция</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000025000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Клавиша 8</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000026000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Верная реакция</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000027000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Клавиша 9</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000028000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Верная реакция</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000029000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Клавиша 0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Верная реакция</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Точка (.)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Верная реакция</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002D000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Enter</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Верная реакция</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00002F000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Плюс (+)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000030000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Верная реакция</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000031000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Верная реакция</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000032000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Верная реакция</t>
         </r>
       </text>
     </comment>
@@ -4058,7 +4047,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="24">
   <si>
     <t>Результаты проведения эксперимента</t>
   </si>
@@ -4069,7 +4058,7 @@
     <t>Дата:</t>
   </si>
   <si>
-    <t>26 февраля 2024 г. 16:45</t>
+    <t>12 февраля 2024 г. 18:49</t>
   </si>
   <si>
     <t>Оператор:</t>
@@ -4120,31 +4109,16 @@
     <t>Матрица замеров (число стимулов: 6)</t>
   </si>
   <si>
-    <t>Матрица замеров (число стимулов: 9)</t>
+    <t>#1</t>
   </si>
   <si>
-    <t>#3</t>
+    <t>Матрица замеров (число стимулов: 9)</t>
   </si>
   <si>
     <t>Матрица замеров (число стимулов: 13)</t>
   </si>
   <si>
-    <t>M_x</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>СКО</t>
-  </si>
-  <si>
-    <t>СКО_x</t>
-  </si>
-  <si>
-    <t>eps</t>
-  </si>
-  <si>
-    <t>v</t>
+    <t>#3</t>
   </si>
 </sst>
 </file>
@@ -4341,7 +4315,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4524,6 +4498,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF32CD32"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4746,7 +4726,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4771,7 +4751,11 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5153,7 +5137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5167,50 +5151,50 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
+      <c r="A7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
@@ -5234,27 +5218,27 @@
       <c r="S8" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="2" t="s">
         <v>5</v>
       </c>
@@ -5291,11 +5275,11 @@
       <c r="T14" s="5"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
@@ -5322,13 +5306,13 @@
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="2" t="s">
         <v>9</v>
       </c>
@@ -5359,8 +5343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="B3:R3"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X27" sqref="T3:X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5372,33 +5356,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="20"/>
-      <c r="T1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="22"/>
+      <c r="T1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="20"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="22"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -5534,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="W3" s="7">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>17</v>
@@ -5551,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="W4" s="7">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>17</v>
@@ -5568,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="7">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>17</v>
@@ -5585,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="W6" s="7">
-        <v>346</v>
+        <v>257</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>17</v>
@@ -5602,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="W7" s="7">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>17</v>
@@ -5619,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="7">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>17</v>
@@ -5636,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="7">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>17</v>
@@ -5653,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="7">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>17</v>
@@ -5670,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="7">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="X11" s="11" t="s">
         <v>17</v>
@@ -5687,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="W12" s="7">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="X12" s="11" t="s">
         <v>17</v>
@@ -5704,7 +5688,7 @@
         <v>1</v>
       </c>
       <c r="W13" s="7">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="X13" s="11" t="s">
         <v>17</v>
@@ -5738,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="7">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="X15" s="11" t="s">
         <v>17</v>
@@ -5755,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="W16" s="7">
-        <v>326</v>
+        <v>246</v>
       </c>
       <c r="X16" s="11" t="s">
         <v>17</v>
@@ -5772,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="W17" s="7">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>17</v>
@@ -5789,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="W18" s="7">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="X18" s="11" t="s">
         <v>17</v>
@@ -5806,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="7">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="X19" s="11" t="s">
         <v>17</v>
@@ -5823,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="W20" s="7">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="X20" s="11" t="s">
         <v>17</v>
@@ -5840,7 +5824,7 @@
         <v>1</v>
       </c>
       <c r="W21" s="7">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="X21" s="11" t="s">
         <v>17</v>
@@ -5857,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="W22" s="7">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="X22" s="11" t="s">
         <v>17</v>
@@ -5874,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="7">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="X23" s="11" t="s">
         <v>17</v>
@@ -5891,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="W24" s="7">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="X24" s="11" t="s">
         <v>17</v>
@@ -5908,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="7">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="X25" s="11" t="s">
         <v>17</v>
@@ -5925,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="7">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="X26" s="11" t="s">
         <v>17</v>
@@ -5942,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="W27" s="7">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="X27" s="11" t="s">
         <v>17</v>
@@ -5963,7 +5947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R5" sqref="B3:R5"/>
     </sheetView>
   </sheetViews>
@@ -5976,33 +5960,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="20"/>
-      <c r="T1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="22"/>
+      <c r="T1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="20"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="22"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -6138,7 +6122,7 @@
         <v>3</v>
       </c>
       <c r="W3" s="7">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>17</v>
@@ -6152,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -6203,13 +6187,13 @@
         <v>2</v>
       </c>
       <c r="U4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W4" s="7">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>17</v>
@@ -6226,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
@@ -6274,13 +6258,13 @@
         <v>3</v>
       </c>
       <c r="U5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W5" s="7">
-        <v>417</v>
+        <v>324</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>17</v>
@@ -6291,13 +6275,13 @@
         <v>4</v>
       </c>
       <c r="U6" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V6" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W6" s="7">
-        <v>411</v>
+        <v>338</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>17</v>
@@ -6314,7 +6298,7 @@
         <v>2</v>
       </c>
       <c r="W7" s="7">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>17</v>
@@ -6325,13 +6309,13 @@
         <v>6</v>
       </c>
       <c r="U8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W8" s="7">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>17</v>
@@ -6342,13 +6326,13 @@
         <v>7</v>
       </c>
       <c r="U9" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V9" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W9" s="7">
-        <v>450</v>
+        <v>375</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>17</v>
@@ -6359,13 +6343,13 @@
         <v>8</v>
       </c>
       <c r="U10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W10" s="7">
-        <v>380</v>
+        <v>306</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>17</v>
@@ -6376,13 +6360,13 @@
         <v>9</v>
       </c>
       <c r="U11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W11" s="7">
-        <v>371</v>
+        <v>445</v>
       </c>
       <c r="X11" s="11" t="s">
         <v>17</v>
@@ -6393,13 +6377,13 @@
         <v>10</v>
       </c>
       <c r="U12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W12" s="7">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="X12" s="11" t="s">
         <v>17</v>
@@ -6410,13 +6394,13 @@
         <v>11</v>
       </c>
       <c r="U13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W13" s="7">
-        <v>405</v>
+        <v>308</v>
       </c>
       <c r="X13" s="11" t="s">
         <v>17</v>
@@ -6427,13 +6411,13 @@
         <v>12</v>
       </c>
       <c r="U14" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V14" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W14" s="7">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="X14" s="11" t="s">
         <v>17</v>
@@ -6450,7 +6434,7 @@
         <v>2</v>
       </c>
       <c r="W15" s="7">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="X15" s="11" t="s">
         <v>17</v>
@@ -6461,13 +6445,13 @@
         <v>14</v>
       </c>
       <c r="U16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W16" s="7">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="X16" s="11" t="s">
         <v>17</v>
@@ -6478,13 +6462,13 @@
         <v>15</v>
       </c>
       <c r="U17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W17" s="7">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>17</v>
@@ -6501,7 +6485,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="7">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="X18" s="11" t="s">
         <v>17</v>
@@ -6518,7 +6502,7 @@
         <v>3</v>
       </c>
       <c r="W19" s="7">
-        <v>396</v>
+        <v>319</v>
       </c>
       <c r="X19" s="11" t="s">
         <v>17</v>
@@ -6529,13 +6513,13 @@
         <v>18</v>
       </c>
       <c r="U20" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V20" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W20" s="7">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="X20" s="11" t="s">
         <v>17</v>
@@ -6546,13 +6530,13 @@
         <v>19</v>
       </c>
       <c r="U21" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="7">
-        <v>405</v>
+        <v>331</v>
       </c>
       <c r="X21" s="11" t="s">
         <v>17</v>
@@ -6563,13 +6547,13 @@
         <v>20</v>
       </c>
       <c r="U22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W22" s="7">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="X22" s="11" t="s">
         <v>17</v>
@@ -6586,7 +6570,7 @@
         <v>2</v>
       </c>
       <c r="W23" s="7">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="X23" s="11" t="s">
         <v>17</v>
@@ -6597,13 +6581,13 @@
         <v>22</v>
       </c>
       <c r="U24" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V24" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W24" s="7">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="X24" s="11" t="s">
         <v>17</v>
@@ -6620,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="7">
-        <v>396</v>
+        <v>316</v>
       </c>
       <c r="X25" s="11" t="s">
         <v>17</v>
@@ -6637,7 +6621,7 @@
         <v>3</v>
       </c>
       <c r="W26" s="7">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="X26" s="11" t="s">
         <v>17</v>
@@ -6648,13 +6632,13 @@
         <v>25</v>
       </c>
       <c r="U27" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V27" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W27" s="7">
-        <v>357</v>
+        <v>266</v>
       </c>
       <c r="X27" s="11" t="s">
         <v>17</v>
@@ -6666,8 +6650,8 @@
     <mergeCell ref="T1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6675,9 +6659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="B3:R8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6688,33 +6670,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="20"/>
-      <c r="T1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="22"/>
+      <c r="T1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="20"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="22"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -6790,7 +6772,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
@@ -6798,8 +6780,8 @@
       <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
+      <c r="E3" s="12">
+        <v>1</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
@@ -6844,13 +6826,13 @@
         <v>1</v>
       </c>
       <c r="U3" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V3" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W3" s="7">
-        <v>465</v>
+        <v>333</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>17</v>
@@ -6915,13 +6897,13 @@
         <v>2</v>
       </c>
       <c r="U4" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V4" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W4" s="7">
-        <v>504</v>
+        <v>387</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>17</v>
@@ -6986,13 +6968,13 @@
         <v>3</v>
       </c>
       <c r="U5" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V5" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W5" s="7">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>17</v>
@@ -7063,7 +7045,7 @@
         <v>2</v>
       </c>
       <c r="W6" s="7">
-        <v>486</v>
+        <v>445</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>17</v>
@@ -7128,13 +7110,13 @@
         <v>5</v>
       </c>
       <c r="U7" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V7" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W7" s="7">
-        <v>434</v>
+        <v>503</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>17</v>
@@ -7202,13 +7184,13 @@
         <v>1</v>
       </c>
       <c r="V8" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W8" s="7">
-        <v>387</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>17</v>
+        <v>485</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
@@ -7216,13 +7198,13 @@
         <v>7</v>
       </c>
       <c r="U9" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V9" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W9" s="7">
-        <v>333</v>
+        <v>416</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>17</v>
@@ -7233,13 +7215,13 @@
         <v>8</v>
       </c>
       <c r="U10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10" s="7">
-        <v>512</v>
+        <v>393</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>17</v>
@@ -7250,13 +7232,13 @@
         <v>9</v>
       </c>
       <c r="U11" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V11" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W11" s="7">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="X11" s="11" t="s">
         <v>17</v>
@@ -7267,13 +7249,13 @@
         <v>10</v>
       </c>
       <c r="U12" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V12" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W12" s="7">
-        <v>487</v>
+        <v>384</v>
       </c>
       <c r="X12" s="11" t="s">
         <v>17</v>
@@ -7284,13 +7266,13 @@
         <v>11</v>
       </c>
       <c r="U13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W13" s="7">
-        <v>366</v>
+        <v>485</v>
       </c>
       <c r="X13" s="11" t="s">
         <v>17</v>
@@ -7301,13 +7283,13 @@
         <v>12</v>
       </c>
       <c r="U14" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V14" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W14" s="7">
-        <v>482</v>
+        <v>342</v>
       </c>
       <c r="X14" s="11" t="s">
         <v>17</v>
@@ -7318,13 +7300,13 @@
         <v>13</v>
       </c>
       <c r="U15" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15" s="7">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="X15" s="11" t="s">
         <v>17</v>
@@ -7335,13 +7317,13 @@
         <v>14</v>
       </c>
       <c r="U16" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V16" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W16" s="7">
-        <v>499</v>
+        <v>420</v>
       </c>
       <c r="X16" s="11" t="s">
         <v>17</v>
@@ -7352,13 +7334,13 @@
         <v>15</v>
       </c>
       <c r="U17" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V17" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W17" s="7">
-        <v>471</v>
+        <v>334</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>17</v>
@@ -7369,13 +7351,13 @@
         <v>16</v>
       </c>
       <c r="U18" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V18" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W18" s="7">
-        <v>432</v>
+        <v>332</v>
       </c>
       <c r="X18" s="11" t="s">
         <v>17</v>
@@ -7386,13 +7368,13 @@
         <v>17</v>
       </c>
       <c r="U19" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V19" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W19" s="7">
-        <v>506</v>
+        <v>412</v>
       </c>
       <c r="X19" s="11" t="s">
         <v>17</v>
@@ -7403,13 +7385,13 @@
         <v>18</v>
       </c>
       <c r="U20" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V20" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W20" s="7">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="X20" s="11" t="s">
         <v>17</v>
@@ -7420,13 +7402,13 @@
         <v>19</v>
       </c>
       <c r="U21" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V21" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W21" s="7">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="X21" s="11" t="s">
         <v>17</v>
@@ -7437,13 +7419,13 @@
         <v>20</v>
       </c>
       <c r="U22" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V22" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W22" s="7">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="X22" s="11" t="s">
         <v>17</v>
@@ -7454,13 +7436,13 @@
         <v>21</v>
       </c>
       <c r="U23" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V23" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W23" s="7">
-        <v>421</v>
+        <v>459</v>
       </c>
       <c r="X23" s="11" t="s">
         <v>17</v>
@@ -7471,13 +7453,13 @@
         <v>22</v>
       </c>
       <c r="U24" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V24" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W24" s="7">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="X24" s="11" t="s">
         <v>17</v>
@@ -7488,13 +7470,13 @@
         <v>23</v>
       </c>
       <c r="U25" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V25" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W25" s="7">
-        <v>505</v>
+        <v>437</v>
       </c>
       <c r="X25" s="11" t="s">
         <v>17</v>
@@ -7505,13 +7487,13 @@
         <v>24</v>
       </c>
       <c r="U26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26" s="7">
-        <v>452</v>
+        <v>409</v>
       </c>
       <c r="X26" s="11" t="s">
         <v>17</v>
@@ -7528,7 +7510,7 @@
         <v>5</v>
       </c>
       <c r="W27" s="7">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="X27" s="11" t="s">
         <v>17</v>
@@ -7540,8 +7522,8 @@
     <mergeCell ref="T1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7549,9 +7531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="B3:R11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7562,33 +7542,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="20"/>
-      <c r="T1" s="18" t="s">
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="22"/>
+      <c r="T1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="20"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="22"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
@@ -7664,7 +7644,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
@@ -7718,13 +7698,13 @@
         <v>1</v>
       </c>
       <c r="U3" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V3" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W3" s="7">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>17</v>
@@ -7738,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -7789,16 +7769,16 @@
         <v>2</v>
       </c>
       <c r="U4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W4" s="7">
-        <v>711</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>21</v>
+        <v>463</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -7860,13 +7840,13 @@
         <v>3</v>
       </c>
       <c r="U5" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V5" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W5" s="7">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>17</v>
@@ -7931,13 +7911,13 @@
         <v>4</v>
       </c>
       <c r="U6" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V6" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W6" s="7">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>17</v>
@@ -7960,10 +7940,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="10">
-        <v>3</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8002,13 +7982,13 @@
         <v>5</v>
       </c>
       <c r="U7" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V7" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W7" s="7">
-        <v>457</v>
+        <v>372</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>17</v>
@@ -8073,16 +8053,16 @@
         <v>6</v>
       </c>
       <c r="U8" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V8" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="W8" s="7">
-        <v>722</v>
-      </c>
-      <c r="X8" s="12" t="s">
-        <v>21</v>
+        <v>314</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
@@ -8144,13 +8124,13 @@
         <v>7</v>
       </c>
       <c r="U9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9" s="7">
-        <v>431</v>
+        <v>489</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>17</v>
@@ -8215,13 +8195,13 @@
         <v>8</v>
       </c>
       <c r="U10" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W10" s="7">
-        <v>570</v>
+        <v>348</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>17</v>
@@ -8286,13 +8266,13 @@
         <v>9</v>
       </c>
       <c r="U11" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V11" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="W11" s="7">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="X11" s="11" t="s">
         <v>17</v>
@@ -8303,13 +8283,13 @@
         <v>10</v>
       </c>
       <c r="U12" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V12" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W12" s="7">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="X12" s="11" t="s">
         <v>17</v>
@@ -8320,13 +8300,13 @@
         <v>11</v>
       </c>
       <c r="U13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W13" s="7">
-        <v>418</v>
+        <v>532</v>
       </c>
       <c r="X13" s="11" t="s">
         <v>17</v>
@@ -8337,13 +8317,13 @@
         <v>12</v>
       </c>
       <c r="U14" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V14" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W14" s="7">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="X14" s="11" t="s">
         <v>17</v>
@@ -8360,7 +8340,7 @@
         <v>1</v>
       </c>
       <c r="W15" s="7">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="X15" s="11" t="s">
         <v>17</v>
@@ -8371,13 +8351,13 @@
         <v>14</v>
       </c>
       <c r="U16" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="V16" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="W16" s="7">
-        <v>539</v>
+        <v>374</v>
       </c>
       <c r="X16" s="11" t="s">
         <v>17</v>
@@ -8388,16 +8368,16 @@
         <v>15</v>
       </c>
       <c r="U17" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W17" s="7">
-        <v>437</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>17</v>
+        <v>373</v>
+      </c>
+      <c r="X17" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="20:24" x14ac:dyDescent="0.3">
@@ -8405,13 +8385,13 @@
         <v>16</v>
       </c>
       <c r="U18" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V18" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W18" s="7">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="X18" s="11" t="s">
         <v>17</v>
@@ -8422,13 +8402,13 @@
         <v>17</v>
       </c>
       <c r="U19" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V19" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W19" s="7">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="X19" s="11" t="s">
         <v>17</v>
@@ -8445,7 +8425,7 @@
         <v>8</v>
       </c>
       <c r="W20" s="7">
-        <v>485</v>
+        <v>439</v>
       </c>
       <c r="X20" s="11" t="s">
         <v>17</v>
@@ -8456,13 +8436,13 @@
         <v>19</v>
       </c>
       <c r="U21" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V21" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="W21" s="7">
-        <v>438</v>
+        <v>379</v>
       </c>
       <c r="X21" s="11" t="s">
         <v>17</v>
@@ -8473,13 +8453,13 @@
         <v>20</v>
       </c>
       <c r="U22" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V22" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W22" s="7">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="X22" s="11" t="s">
         <v>17</v>
@@ -8490,13 +8470,13 @@
         <v>21</v>
       </c>
       <c r="U23" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V23" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W23" s="7">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="X23" s="11" t="s">
         <v>17</v>
@@ -8513,7 +8493,7 @@
         <v>3</v>
       </c>
       <c r="W24" s="7">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="X24" s="11" t="s">
         <v>17</v>
@@ -8524,13 +8504,13 @@
         <v>23</v>
       </c>
       <c r="U25" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V25" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="W25" s="7">
-        <v>516</v>
+        <v>454</v>
       </c>
       <c r="X25" s="11" t="s">
         <v>17</v>
@@ -8547,7 +8527,7 @@
         <v>5</v>
       </c>
       <c r="W26" s="7">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="X26" s="11" t="s">
         <v>17</v>
@@ -8558,13 +8538,13 @@
         <v>25</v>
       </c>
       <c r="U27" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V27" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W27" s="7">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="X27" s="11" t="s">
         <v>17</v>
@@ -8576,18 +8556,16 @@
     <mergeCell ref="T1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8597,36 +8575,36 @@
     <col min="25" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="20"/>
-      <c r="T1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="22"/>
+      <c r="T1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="20"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="22"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="8">
         <v>1</v>
@@ -8695,7 +8673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -8754,23 +8732,19 @@
         <v>1</v>
       </c>
       <c r="U3" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="V3" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="W3" s="7">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="1">
-        <f>(W3-$W$28)^2</f>
-        <v>1633.5069444444459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -8829,23 +8803,19 @@
         <v>2</v>
       </c>
       <c r="U4" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V4" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W4" s="7">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z4" s="1">
-        <f>(W4-$W$28)^2</f>
-        <v>339.17361111111182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -8904,19 +8874,19 @@
         <v>3</v>
       </c>
       <c r="U5" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V5" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W5" s="7">
-        <v>630</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -8930,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
@@ -8975,23 +8945,19 @@
         <v>4</v>
       </c>
       <c r="U6" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V6" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W6" s="7">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z6" s="1">
-        <f t="shared" ref="Z5:Z27" si="0">(W6-$W$28)^2</f>
-        <v>6.673611111111013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -9050,23 +9016,19 @@
         <v>5</v>
       </c>
       <c r="U7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W7" s="7">
-        <v>486</v>
+        <v>399</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z7" s="1">
-        <f t="shared" si="0"/>
-        <v>987.00694444444559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -9125,23 +9087,19 @@
         <v>6</v>
       </c>
       <c r="U8" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V8" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W8" s="7">
-        <v>484</v>
+        <v>363</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z8" s="1">
-        <f t="shared" si="0"/>
-        <v>865.34027777777885</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -9200,23 +9158,19 @@
         <v>7</v>
       </c>
       <c r="U9" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V9" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W9" s="7">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="1">
-        <f t="shared" si="0"/>
-        <v>11.67361111111124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -9275,23 +9229,19 @@
         <v>8</v>
       </c>
       <c r="U10" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="V10" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W10" s="7">
-        <v>421</v>
+        <v>504</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z10" s="1">
-        <f t="shared" si="0"/>
-        <v>1127.8402777777765</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -9350,23 +9300,19 @@
         <v>9</v>
       </c>
       <c r="U11" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="V11" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="W11" s="7">
-        <v>406</v>
+        <v>477</v>
       </c>
       <c r="X11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z11" s="1">
-        <f t="shared" si="0"/>
-        <v>2360.340277777776</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -9398,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
@@ -9425,23 +9371,19 @@
         <v>10</v>
       </c>
       <c r="U12" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V12" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W12" s="7">
-        <v>392</v>
+        <v>499</v>
       </c>
       <c r="X12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z12" s="1">
-        <f t="shared" si="0"/>
-        <v>3916.6736111111086</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -9500,23 +9442,19 @@
         <v>11</v>
       </c>
       <c r="U13" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V13" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W13" s="7">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="X13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z13" s="1">
-        <f t="shared" si="0"/>
-        <v>11.67361111111124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -9581,17 +9519,13 @@
         <v>6</v>
       </c>
       <c r="W14" s="7">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="X14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z14" s="1">
-        <f t="shared" si="0"/>
-        <v>43.34027777777753</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -9650,254 +9584,206 @@
         <v>13</v>
       </c>
       <c r="U15" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V15" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W15" s="7">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="X15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z15" s="1">
-        <f t="shared" si="0"/>
-        <v>184.50694444444392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="T16" s="7">
         <v>14</v>
       </c>
       <c r="U16" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="V16" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="W16" s="7">
-        <v>354</v>
+        <v>512</v>
       </c>
       <c r="X16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z16" s="1">
-        <f t="shared" si="0"/>
-        <v>10117.00694444444</v>
-      </c>
-    </row>
-    <row r="17" spans="20:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T17" s="7">
         <v>15</v>
       </c>
       <c r="U17" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V17" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W17" s="7">
-        <v>440</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z17" s="1">
-        <f t="shared" si="0"/>
-        <v>212.67361111111055</v>
-      </c>
-    </row>
-    <row r="18" spans="20:26" x14ac:dyDescent="0.3">
+        <v>798</v>
+      </c>
+      <c r="X17" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T18" s="7">
         <v>16</v>
       </c>
       <c r="U18" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="V18" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="W18" s="7">
-        <v>442</v>
+        <v>531</v>
       </c>
       <c r="X18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z18" s="1">
-        <f t="shared" si="0"/>
-        <v>158.34027777777729</v>
-      </c>
-    </row>
-    <row r="19" spans="20:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T19" s="7">
         <v>17</v>
       </c>
       <c r="U19" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="V19" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="W19" s="7">
-        <v>455</v>
+        <v>493</v>
       </c>
       <c r="X19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1736111111111269</v>
-      </c>
-    </row>
-    <row r="20" spans="20:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T20" s="7">
         <v>18</v>
       </c>
       <c r="U20" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V20" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W20" s="7">
-        <v>427</v>
+        <v>485</v>
       </c>
       <c r="X20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z20" s="1">
-        <f t="shared" si="0"/>
-        <v>760.84027777777669</v>
-      </c>
-    </row>
-    <row r="21" spans="20:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T21" s="7">
         <v>19</v>
       </c>
       <c r="U21" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V21" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W21" s="7">
-        <v>506</v>
+        <v>443</v>
       </c>
       <c r="X21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z21" s="1">
-        <f t="shared" si="0"/>
-        <v>2643.6736111111131</v>
-      </c>
-    </row>
-    <row r="22" spans="20:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T22" s="7">
         <v>20</v>
       </c>
       <c r="U22" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="V22" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="W22" s="7">
-        <v>515</v>
+        <v>444</v>
       </c>
       <c r="X22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z22" s="1">
-        <f t="shared" si="0"/>
-        <v>3650.1736111111136</v>
-      </c>
-    </row>
-    <row r="23" spans="20:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T23" s="7">
         <v>21</v>
       </c>
       <c r="U23" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V23" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W23" s="7">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="X23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z23" s="1">
-        <f t="shared" si="0"/>
-        <v>212.67361111111055</v>
-      </c>
-    </row>
-    <row r="24" spans="20:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T24" s="7">
         <v>22</v>
       </c>
       <c r="U24" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V24" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="W24" s="7">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="X24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z24" s="1">
-        <f t="shared" si="0"/>
-        <v>3412.5069444444466</v>
-      </c>
-    </row>
-    <row r="25" spans="20:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T25" s="7">
         <v>23</v>
       </c>
       <c r="U25" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="V25" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="W25" s="7">
-        <v>461</v>
+        <v>332</v>
       </c>
       <c r="X25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z25" s="1">
-        <f t="shared" si="0"/>
-        <v>41.173611111111356</v>
-      </c>
-    </row>
-    <row r="26" spans="20:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T26" s="7">
         <v>24</v>
       </c>
       <c r="U26" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V26" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W26" s="7">
-        <v>445</v>
+        <v>527</v>
       </c>
       <c r="X26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Z26" s="1">
-        <f t="shared" si="0"/>
-        <v>91.840277777777416</v>
-      </c>
-    </row>
-    <row r="27" spans="20:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="20:24" x14ac:dyDescent="0.3">
       <c r="T27" s="7">
         <v>25</v>
       </c>
@@ -9908,70 +9794,10 @@
         <v>7</v>
       </c>
       <c r="W27" s="7">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="X27" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="Z27" s="1">
-        <f t="shared" si="0"/>
-        <v>1885.0069444444462</v>
-      </c>
-    </row>
-    <row r="28" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="V28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W28" s="1">
-        <f>AVERAGE(W3:W4,W6:W27)</f>
-        <v>454.58333333333331</v>
-      </c>
-      <c r="Z28" s="1">
-        <f>SUM(Z3:Z4,Z6:Z27)</f>
-        <v>34673.833333333328</v>
-      </c>
-    </row>
-    <row r="29" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="V29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W29" s="1">
-        <f>COUNTA(W3:W4,W6:W27)</f>
-        <v>24</v>
-      </c>
-      <c r="Y29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z29" s="1">
-        <f>SQRT(Z28/(W29-1))</f>
-        <v>38.827283848017139</v>
-      </c>
-    </row>
-    <row r="30" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="Y30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z30" s="1">
-        <f>Z29/SQRT(W29)</f>
-        <v>7.9255861271540793</v>
-      </c>
-    </row>
-    <row r="31" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="Y31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z31" s="1">
-        <f>2.07*Z30</f>
-        <v>16.405963283208944</v>
-      </c>
-    </row>
-    <row r="32" spans="20:26" x14ac:dyDescent="0.3">
-      <c r="Y32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z32" s="1">
-        <f>Z30*100/W28</f>
-        <v>1.7434836576690917</v>
       </c>
     </row>
   </sheetData>
@@ -9980,7 +9806,7 @@
     <mergeCell ref="T1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>